--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8390,28 +8390,28 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8424,28 +8424,28 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8458,28 +8458,28 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8492,19 +8492,19 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8526,28 +8526,28 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8560,19 +8560,19 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8594,19 +8594,19 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8634,13 +8634,13 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8662,28 +8662,28 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8736,22 +8736,22 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8764,28 +8764,28 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8804,22 +8804,22 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8832,28 +8832,28 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8866,28 +8866,28 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8900,28 +8900,28 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8934,28 +8934,28 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9002,25 +9002,25 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -8968,19 +8968,19 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -9036,28 +9036,28 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9070,28 +9070,28 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9110,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -9138,28 +9138,28 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9212,22 +9212,22 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9240,28 +9240,28 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9274,28 +9274,28 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9580,28 +9580,28 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H269" t="n">
         <v>1</v>

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9648,28 +9648,28 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9682,28 +9682,28 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9923,25 +9923,25 @@
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -9991,25 +9991,25 @@
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10022,28 +10022,28 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10056,28 +10056,28 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10158,28 +10158,28 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10192,28 +10192,28 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10226,19 +10226,19 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10260,28 +10260,28 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10362,28 +10362,28 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="n">
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">

--- a/statistics/2024_life_data.xlsx
+++ b/statistics/2024_life_data.xlsx
@@ -10464,7 +10464,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -10473,19 +10473,19 @@
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
